--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3497D53D-7875-476E-B3BC-F5F4B6B4D450}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>System</t>
   </si>
@@ -57,18 +63,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Part </t>
     </r>
@@ -105,15 +99,6 @@
     <t>BR_01003</t>
   </si>
   <si>
-    <t>BR_01004</t>
-  </si>
-  <si>
-    <t>BR_01005</t>
-  </si>
-  <si>
-    <t>BR_01006</t>
-  </si>
-  <si>
     <t>BR_A0002</t>
   </si>
   <si>
@@ -129,16 +114,52 @@
     <t>BR_02004</t>
   </si>
   <si>
-    <t>BR_02005</t>
-  </si>
-  <si>
-    <t>BR_02006</t>
+    <t>Front brake rotor</t>
+  </si>
+  <si>
+    <t>Rear brake rotor</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Rear brake shrink disc</t>
+  </si>
+  <si>
+    <t>230 mm cast iron disc</t>
+  </si>
+  <si>
+    <t>193 mm inox disc</t>
+  </si>
+  <si>
+    <t>Front brake caliper</t>
+  </si>
+  <si>
+    <t>Rear brake caliper</t>
+  </si>
+  <si>
+    <t>Front brake reservoir</t>
+  </si>
+  <si>
+    <t>Rear brake reservoir</t>
+  </si>
+  <si>
+    <t>tank to store brake fluid</t>
+  </si>
+  <si>
+    <t>Béringer 2P1A, dual piston 32mm bore</t>
+  </si>
+  <si>
+    <t>Béringer 2D1, dual piston 27mm bore</t>
+  </si>
+  <si>
+    <t>Link between hub and brake disc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,27 +576,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" customWidth="1"/>
+    <col min="2" max="2" width="26.20703125" customWidth="1"/>
+    <col min="3" max="3" width="22.3125" customWidth="1"/>
+    <col min="4" max="4" width="23.3125" customWidth="1"/>
+    <col min="5" max="5" width="44.41796875" customWidth="1"/>
+    <col min="6" max="6" width="14.7890625" customWidth="1"/>
+    <col min="7" max="7" width="16.89453125" customWidth="1"/>
+    <col min="8" max="8" width="11.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -598,263 +619,213 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3497D53D-7875-476E-B3BC-F5F4B6B4D450}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>System</t>
   </si>
@@ -111,9 +110,6 @@
     <t>BR_02003</t>
   </si>
   <si>
-    <t>BR_02004</t>
-  </si>
-  <si>
     <t>Front brake rotor</t>
   </si>
   <si>
@@ -123,9 +119,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>Rear brake shrink disc</t>
-  </si>
-  <si>
     <t>230 mm cast iron disc</t>
   </si>
   <si>
@@ -151,15 +144,12 @@
   </si>
   <si>
     <t>Béringer 2D1, dual piston 27mm bore</t>
-  </si>
-  <si>
-    <t>Link between hub and brake disc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,27 +566,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.68359375" customWidth="1"/>
-    <col min="2" max="2" width="26.20703125" customWidth="1"/>
-    <col min="3" max="3" width="22.3125" customWidth="1"/>
-    <col min="4" max="4" width="23.3125" customWidth="1"/>
-    <col min="5" max="5" width="44.41796875" customWidth="1"/>
-    <col min="6" max="6" width="14.7890625" customWidth="1"/>
-    <col min="7" max="7" width="16.89453125" customWidth="1"/>
-    <col min="8" max="8" width="11.5234375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -634,17 +624,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -653,17 +643,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
@@ -672,17 +662,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -691,141 +681,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4733032F-3D9D-4EE7-8F3E-05BCD58E608A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>System</t>
   </si>
@@ -145,11 +146,38 @@
   <si>
     <t>Béringer 2D1, dual piston 27mm bore</t>
   </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>to assemble Brake rotor and shrink disc</t>
+  </si>
+  <si>
+    <t>BR_02004</t>
+  </si>
+  <si>
+    <t>BR_01004</t>
+  </si>
+  <si>
+    <t>Adapter</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>adapter for pressure sensors</t>
+  </si>
+  <si>
+    <t>BR_01005</t>
+  </si>
+  <si>
+    <t>BR_02005</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -285,6 +313,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,27 +597,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A10:XFD11"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" customWidth="1"/>
+    <col min="2" max="2" width="26.20703125" customWidth="1"/>
+    <col min="3" max="3" width="22.3125" customWidth="1"/>
+    <col min="4" max="4" width="23.3125" customWidth="1"/>
+    <col min="5" max="5" width="44.41796875" customWidth="1"/>
+    <col min="6" max="6" width="14.7890625" customWidth="1"/>
+    <col min="7" max="7" width="16.89453125" customWidth="1"/>
+    <col min="8" max="8" width="11.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -624,7 +655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -643,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -662,7 +693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -681,76 +712,152 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4733032F-3D9D-4EE7-8F3E-05BCD58E608A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24EF4EC-9C06-4992-A2FF-FB84036D0681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>Béringer 2D1, dual piston 27mm bore</t>
   </si>
   <si>
-    <t>Button</t>
-  </si>
-  <si>
     <t>to assemble Brake rotor and shrink disc</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>BR_02005</t>
+  </si>
+  <si>
+    <t>Rotor button</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -716,38 +716,38 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -826,38 +826,38 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4">
         <v>6</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24EF4EC-9C06-4992-A2FF-FB84036D0681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -177,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,27 +596,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.68359375" customWidth="1"/>
-    <col min="2" max="2" width="26.20703125" customWidth="1"/>
-    <col min="3" max="3" width="22.3125" customWidth="1"/>
-    <col min="4" max="4" width="23.3125" customWidth="1"/>
-    <col min="5" max="5" width="44.41796875" customWidth="1"/>
-    <col min="6" max="6" width="14.7890625" customWidth="1"/>
-    <col min="7" max="7" width="16.89453125" customWidth="1"/>
-    <col min="8" max="8" width="11.5234375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -655,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -674,7 +673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -693,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -712,7 +711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -731,7 +730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -750,7 +749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -765,7 +764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -784,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -803,7 +802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -822,7 +821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -841,7 +840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>System</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>Rotor button</t>
+  </si>
+  <si>
+    <t>Front brake circuit</t>
+  </si>
+  <si>
+    <t>Hoses stainless lines with banjos</t>
+  </si>
+  <si>
+    <t>BR_01006</t>
+  </si>
+  <si>
+    <t>BR_02006</t>
+  </si>
+  <si>
+    <t>Rear brake circuit</t>
   </si>
 </sst>
 </file>
@@ -300,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -312,9 +327,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -597,11 +609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,114 +761,152 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="BR_A0100" sheetId="2" r:id="rId2"/>
+    <sheet name="BR_A0200" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
   <si>
     <t>System</t>
   </si>
@@ -86,9 +88,6 @@
     <t>Brake system rear</t>
   </si>
   <si>
-    <t>BR_A0001</t>
-  </si>
-  <si>
     <t>BR_01001</t>
   </si>
   <si>
@@ -98,9 +97,6 @@
     <t>BR_01003</t>
   </si>
   <si>
-    <t>BR_A0002</t>
-  </si>
-  <si>
     <t>BR_02001</t>
   </si>
   <si>
@@ -186,13 +182,61 @@
   </si>
   <si>
     <t>Rear brake circuit</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Assembly Processes</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>To be completed</t>
+  </si>
+  <si>
+    <t>Tba</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>BR - Brake system front</t>
+  </si>
+  <si>
+    <t>BR_A0100_P</t>
+  </si>
+  <si>
+    <t>BR - Brake system rear</t>
+  </si>
+  <si>
+    <t>BR_A0200_P</t>
+  </si>
+  <si>
+    <t>BR_A0200</t>
+  </si>
+  <si>
+    <t>BR_A0100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +279,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +321,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -311,11 +383,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -327,6 +412,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,9 +711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,121 +763,121 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -792,125 +892,855 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4">
         <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB69748A-DC78-4E91-9198-E1705C489F4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="BR_A0100" sheetId="2" r:id="rId2"/>
     <sheet name="BR_A0200" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
   <si>
     <t>System</t>
   </si>
@@ -231,11 +233,107 @@
   <si>
     <t>BR_A0100</t>
   </si>
+  <si>
+    <t>Hydraulic fluid reservoir</t>
+  </si>
+  <si>
+    <t>Brake fluid reservoir</t>
+  </si>
+  <si>
+    <t>Brake pad, iron or steel rotor</t>
+  </si>
+  <si>
+    <t>Brake pad</t>
+  </si>
+  <si>
+    <t>Lock wire</t>
+  </si>
+  <si>
+    <t>Safety wire for caliper</t>
+  </si>
+  <si>
+    <t>Hose, Stainless Steel Braided Outer, L.P</t>
+  </si>
+  <si>
+    <t>Between master cylinder and reservoir</t>
+  </si>
+  <si>
+    <t>Hose clamp</t>
+  </si>
+  <si>
+    <t>For the reservoir hose</t>
+  </si>
+  <si>
+    <t>Hose, Stainless Steel Braided Outer, H.P</t>
+  </si>
+  <si>
+    <t>Brake lines</t>
+  </si>
+  <si>
+    <t>Adapter, H.P., Female Flare Tee, Brass</t>
+  </si>
+  <si>
+    <t>Brake lines-splitter tee</t>
+  </si>
+  <si>
+    <t>Tie wrap</t>
+  </si>
+  <si>
+    <t>To clamp hoses on the frame</t>
+  </si>
+  <si>
+    <t>Bolt, grade 8.8</t>
+  </si>
+  <si>
+    <t>Nut, grade 8.8</t>
+  </si>
+  <si>
+    <t>Fixing fluid reservoir</t>
+  </si>
+  <si>
+    <t>Fixing caliper to upright</t>
+  </si>
+  <si>
+    <t>Washer, steel stainless</t>
+  </si>
+  <si>
+    <t>Fixing tee to tee mount</t>
+  </si>
+  <si>
+    <t>Seal, O-ring, Copper</t>
+  </si>
+  <si>
+    <t>Between caliper, master cylinder, hose</t>
+  </si>
+  <si>
+    <t>Fluid, oil</t>
+  </si>
+  <si>
+    <t>Brake fluid</t>
+  </si>
+  <si>
+    <t>Retaining ring, external</t>
+  </si>
+  <si>
+    <t>To secure brake button on rotor</t>
+  </si>
+  <si>
+    <t>Between brake button and rotor</t>
+  </si>
+  <si>
+    <t>30ncd8 steel</t>
+  </si>
+  <si>
+    <t>Machining setup, install and remove</t>
+  </si>
+  <si>
+    <t>Machining (conventionnal)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +428,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -428,6 +532,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,27 +815,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" customWidth="1"/>
+    <col min="2" max="2" width="26.20703125" customWidth="1"/>
+    <col min="3" max="3" width="22.3125" customWidth="1"/>
+    <col min="4" max="4" width="23.3125" customWidth="1"/>
+    <col min="5" max="5" width="44.41796875" customWidth="1"/>
+    <col min="6" max="6" width="14.7890625" customWidth="1"/>
+    <col min="7" max="7" width="16.89453125" customWidth="1"/>
+    <col min="8" max="8" width="11.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -766,7 +873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -785,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -804,7 +911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -823,7 +930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -836,13 +943,13 @@
         <v>28</v>
       </c>
       <c r="F6" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -861,7 +968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -880,7 +987,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -895,7 +1002,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -914,7 +1021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -933,7 +1040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -952,7 +1059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -965,13 +1072,13 @@
         <v>28</v>
       </c>
       <c r="F13" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -990,7 +1097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1016,25 +1123,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.7890625" customWidth="1"/>
+    <col min="2" max="3" width="24.68359375" customWidth="1"/>
+    <col min="4" max="4" width="23.41796875" customWidth="1"/>
+    <col min="5" max="5" width="32.15625" customWidth="1"/>
+    <col min="6" max="6" width="34.41796875" customWidth="1"/>
+    <col min="7" max="7" width="12.7890625" customWidth="1"/>
+    <col min="8" max="8" width="12.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1060,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
         <v>52</v>
       </c>
@@ -1074,7 +1181,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>45</v>
@@ -1090,25 +1197,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>47</v>
+      <c r="E4" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1116,128 +1223,130 @@
         <v>46</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>48</v>
+        <v>71</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>48</v>
+        <v>83</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>47</v>
@@ -1250,95 +1359,97 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="G15" s="8">
+        <v>3</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>48</v>
+        <v>79</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>48</v>
+        <v>79</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1346,33 +1457,311 @@
         <v>50</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>48</v>
+        <v>79</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="8">
+        <v>6</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="8">
+        <v>12</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1381,25 +1770,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.7890625" customWidth="1"/>
+    <col min="2" max="3" width="24.68359375" customWidth="1"/>
+    <col min="4" max="4" width="23.41796875" customWidth="1"/>
+    <col min="5" max="5" width="23.1015625" customWidth="1"/>
+    <col min="6" max="6" width="34.41796875" customWidth="1"/>
+    <col min="7" max="7" width="12.7890625" customWidth="1"/>
+    <col min="8" max="8" width="12.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1425,7 +1814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
         <v>54</v>
       </c>
@@ -1439,7 +1828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>45</v>
@@ -1455,7 +1844,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1473,7 +1862,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1491,7 +1880,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1509,7 +1898,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1527,7 +1916,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1545,7 +1934,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1563,7 +1952,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>47</v>
@@ -1579,7 +1968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1597,7 +1986,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1615,7 +2004,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>47</v>
@@ -1631,7 +2020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1649,7 +2038,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1667,7 +2056,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1685,7 +2074,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1703,7 +2092,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1721,7 +2110,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB69748A-DC78-4E91-9198-E1705C489F4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CD7E06-0CC8-4431-A1FF-0A2430AD3E75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="123">
   <si>
     <t>System</t>
   </si>
@@ -328,6 +328,105 @@
   </si>
   <si>
     <t>Machining (conventionnal)</t>
+  </si>
+  <si>
+    <t>Assemble by hand</t>
+  </si>
+  <si>
+    <t>Line up pad</t>
+  </si>
+  <si>
+    <t>Put caliper in place</t>
+  </si>
+  <si>
+    <t>Tighten bolts</t>
+  </si>
+  <si>
+    <t>Bolt caliper on upright</t>
+  </si>
+  <si>
+    <t>Insert button and washer</t>
+  </si>
+  <si>
+    <t>Assemble brake rotor and shrink disc</t>
+  </si>
+  <si>
+    <t>Insert retaining ring</t>
+  </si>
+  <si>
+    <t>Safety wire, install</t>
+  </si>
+  <si>
+    <t>Caliper bolts locking device</t>
+  </si>
+  <si>
+    <t>Drilled hole</t>
+  </si>
+  <si>
+    <t>Drill bolts for safety wire</t>
+  </si>
+  <si>
+    <t>Positioning the reservoir on the mount</t>
+  </si>
+  <si>
+    <t>Fixing the reservoir on the mount</t>
+  </si>
+  <si>
+    <t>Reaction tool</t>
+  </si>
+  <si>
+    <t>Fixing the reservoir in the mount</t>
+  </si>
+  <si>
+    <t>Positioning tee on tee mount</t>
+  </si>
+  <si>
+    <t>Fitting, L.P., straight, aluminium</t>
+  </si>
+  <si>
+    <t>Between hose and master cylinder</t>
+  </si>
+  <si>
+    <t>Positioning fitting on master cylinder</t>
+  </si>
+  <si>
+    <t>Fixing fitting on master cylinder</t>
+  </si>
+  <si>
+    <t>Put hose between MC and reservoir</t>
+  </si>
+  <si>
+    <t>Cut metallic hosses</t>
+  </si>
+  <si>
+    <t>Cut hose between MC and reservoir</t>
+  </si>
+  <si>
+    <t>Install tie wrap</t>
+  </si>
+  <si>
+    <t>Install clamp on the hose</t>
+  </si>
+  <si>
+    <t>Tighten clamp on the hose</t>
+  </si>
+  <si>
+    <t>Install hose between MC and tee</t>
+  </si>
+  <si>
+    <t>Tighten the fittings</t>
+  </si>
+  <si>
+    <t>Install hose between tee and caliper</t>
+  </si>
+  <si>
+    <t>Install tie wrap (zip tie, cable clamp)</t>
+  </si>
+  <si>
+    <t>Install clamp on the frame and A-arms</t>
+  </si>
+  <si>
+    <t>tba</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1277,13 +1376,13 @@
         <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="G8" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -1294,11 +1393,11 @@
       <c r="D9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>61</v>
+      <c r="E9" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G9" s="8">
         <v>4</v>
@@ -1312,11 +1411,11 @@
       <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>80</v>
+      <c r="E10" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G10" s="8">
         <v>4</v>
@@ -1330,14 +1429,14 @@
       <c r="D11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>82</v>
+      <c r="E11" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1346,16 +1445,16 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>48</v>
+        <v>83</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -1367,13 +1466,13 @@
         <v>49</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>48</v>
+        <v>95</v>
+      </c>
+      <c r="G13" s="8">
+        <v>12</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -1382,16 +1481,16 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -1400,16 +1499,16 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G15" s="8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -1418,16 +1517,16 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G16" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -1436,13 +1535,13 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G17" s="8">
         <v>2</v>
@@ -1454,16 +1553,16 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G18" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -1472,13 +1571,13 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G19" s="8">
         <v>4</v>
@@ -1490,16 +1589,16 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>48</v>
+        <v>99</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -1508,16 +1607,16 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G21" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -1526,136 +1625,160 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>48</v>
+        <v>103</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>10</v>
-      </c>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="D24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
-        <v>11</v>
-      </c>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>48</v>
+        <v>79</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6" t="s">
-        <v>12</v>
-      </c>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="D28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6" t="s">
-        <v>30</v>
-      </c>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="G30" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -1664,49 +1787,53 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G31" s="8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6" t="s">
-        <v>34</v>
-      </c>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2</v>
+      </c>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>87</v>
+        <v>49</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1714,16 +1841,16 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>48</v>
+        <v>118</v>
+      </c>
+      <c r="G34" s="8">
+        <v>2</v>
       </c>
       <c r="H34" s="7"/>
     </row>
@@ -1735,13 +1862,13 @@
         <v>49</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="G35" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="7"/>
     </row>
@@ -1753,15 +1880,411 @@
         <v>49</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="8">
+        <v>4</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="8">
+        <v>3</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="8">
+        <v>2</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="8">
+        <v>4</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="8">
+        <v>2</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="10">
+        <v>6</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="10">
+        <v>12</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" s="8">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="8">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7"/>
+      <c r="F60" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="8">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CD7E06-0CC8-4431-A1FF-0A2430AD3E75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B94B03-D58B-497D-BD3C-8E39B1FA43B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="126">
   <si>
     <t>System</t>
   </si>
@@ -234,18 +234,9 @@
     <t>BR_A0100</t>
   </si>
   <si>
-    <t>Hydraulic fluid reservoir</t>
-  </si>
-  <si>
-    <t>Brake fluid reservoir</t>
-  </si>
-  <si>
     <t>Brake pad, iron or steel rotor</t>
   </si>
   <si>
-    <t>Brake pad</t>
-  </si>
-  <si>
     <t>Lock wire</t>
   </si>
   <si>
@@ -427,6 +418,24 @@
   </si>
   <si>
     <t>tba</t>
+  </si>
+  <si>
+    <t>Brake pad, Brake caliper</t>
+  </si>
+  <si>
+    <t>Brake circuit</t>
+  </si>
+  <si>
+    <t>Between master cylinder and tee</t>
+  </si>
+  <si>
+    <t>Between tee and caliper</t>
+  </si>
+  <si>
+    <t>To fix hose to tee, caliper and MC</t>
+  </si>
+  <si>
+    <t>Put the hose in the fittings</t>
   </si>
 </sst>
 </file>
@@ -1223,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1303,11 +1312,11 @@
       <c r="D4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>58</v>
+      <c r="E4" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
@@ -1322,13 +1331,13 @@
         <v>46</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G5" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -1340,13 +1349,13 @@
         <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G6" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -1358,13 +1367,13 @@
         <v>46</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -1375,11 +1384,11 @@
       <c r="D8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>107</v>
+      <c r="E8" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
@@ -1391,16 +1400,16 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G9" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1409,16 +1418,16 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="G10" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1427,16 +1436,16 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G11" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1445,16 +1454,16 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>82</v>
+        <v>49</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G12" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -1466,13 +1475,13 @@
         <v>49</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G13" s="8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -1484,10 +1493,10 @@
         <v>49</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G14" s="8">
         <v>2</v>
@@ -1505,10 +1514,10 @@
         <v>90</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G15" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -1520,13 +1529,13 @@
         <v>49</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G16" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -1538,13 +1547,13 @@
         <v>49</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G17" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -1559,10 +1568,10 @@
         <v>90</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G18" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -1573,14 +1582,14 @@
       <c r="D19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>93</v>
+      <c r="E19" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G19" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -1592,13 +1601,13 @@
         <v>49</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G20" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -1613,7 +1622,7 @@
         <v>90</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
@@ -1627,11 +1636,11 @@
       <c r="D22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>93</v>
+      <c r="E22" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="G22" s="8">
         <v>1</v>
@@ -1645,11 +1654,11 @@
       <c r="D23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>104</v>
+      <c r="E23" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G23" s="8">
         <v>1</v>
@@ -1667,7 +1676,7 @@
         <v>90</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G24" s="8">
         <v>1</v>
@@ -1682,10 +1691,10 @@
         <v>49</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="G25" s="8">
         <v>1</v>
@@ -1699,14 +1708,14 @@
       <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>104</v>
+      <c r="E26" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="G26" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -1717,14 +1726,14 @@
       <c r="D27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="10" t="s">
         <v>90</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G27" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -1736,10 +1745,10 @@
         <v>49</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G28" s="8">
         <v>1</v>
@@ -1754,13 +1763,13 @@
         <v>49</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G29" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -1772,13 +1781,13 @@
         <v>49</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G30" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -1790,13 +1799,13 @@
         <v>49</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>115</v>
       </c>
       <c r="G31" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -1807,14 +1816,14 @@
       <c r="D32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>93</v>
+      <c r="E32" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="8">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -1823,13 +1832,13 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="G33" s="8">
         <v>1</v>
@@ -1841,16 +1850,16 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="G34" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="7"/>
     </row>
@@ -1859,16 +1868,16 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="G35" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="7"/>
     </row>
@@ -1877,16 +1886,16 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="G36" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -1895,16 +1904,16 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>122</v>
+        <v>76</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
       </c>
       <c r="H37" s="7"/>
     </row>
@@ -1916,13 +1925,13 @@
         <v>50</v>
       </c>
       <c r="E38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="G38" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -1937,10 +1946,10 @@
         <v>75</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="8">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -1952,13 +1961,13 @@
         <v>50</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G40" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -1970,215 +1979,211 @@
         <v>50</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="8">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="8">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7"/>
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="8">
-        <v>4</v>
-      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="7"/>
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="8">
-        <v>2</v>
-      </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="E49" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="10">
+        <v>6</v>
+      </c>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="D50" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="10">
+        <v>12</v>
+      </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="D52" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="G52" s="8"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
-        <v>30</v>
-      </c>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G54" s="10">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -2187,23 +2192,23 @@
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G55" s="10">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="G55" s="8">
+        <v>1</v>
       </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>32</v>
@@ -2213,7 +2218,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2223,13 +2228,15 @@
       <c r="D57" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>87</v>
+      <c r="E57" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="G57" s="8">
+        <v>3</v>
+      </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2240,13 +2247,13 @@
         <v>46</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -2255,13 +2262,13 @@
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="G59" s="8">
         <v>1</v>
@@ -2276,15 +2283,87 @@
         <v>49</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="G60" s="8">
         <v>1</v>
       </c>
       <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="8">
+        <v>2</v>
+      </c>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" s="8">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" s="8">
+        <v>6</v>
+      </c>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G64" s="8">
+        <v>5</v>
+      </c>
+      <c r="H64" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B94B03-D58B-497D-BD3C-8E39B1FA43B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2C94C1-5F90-49D6-931B-CBC9DD7BBCCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="128">
   <si>
     <t>System</t>
   </si>
@@ -436,6 +436,12 @@
   </si>
   <si>
     <t>Put the hose in the fittings</t>
+  </si>
+  <si>
+    <t>Install pression sensor adapter</t>
+  </si>
+  <si>
+    <t>Fix pression sensor adapter on the tee</t>
   </si>
 </sst>
 </file>
@@ -1232,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1313,13 +1319,13 @@
         <v>46</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G4" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1331,10 +1337,10 @@
         <v>46</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
@@ -1349,10 +1355,10 @@
         <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G6" s="8">
         <v>4</v>
@@ -1366,14 +1372,14 @@
       <c r="D7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>77</v>
+      <c r="E7" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G7" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -1382,16 +1388,16 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G8" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -1406,10 +1412,10 @@
         <v>87</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G9" s="8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1424,10 +1430,10 @@
         <v>87</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G10" s="8">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1439,13 +1445,13 @@
         <v>49</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G11" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1457,13 +1463,13 @@
         <v>49</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G12" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -1478,7 +1484,7 @@
         <v>87</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="8">
         <v>2</v>
@@ -1493,13 +1499,13 @@
         <v>49</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G14" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -1511,13 +1517,13 @@
         <v>49</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G15" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -1529,13 +1535,13 @@
         <v>49</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G16" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -1547,10 +1553,10 @@
         <v>49</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -1564,11 +1570,11 @@
       <c r="D18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>90</v>
+      <c r="E18" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -1582,11 +1588,11 @@
       <c r="D19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>101</v>
+      <c r="E19" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
@@ -1601,10 +1607,10 @@
         <v>49</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -1618,8 +1624,8 @@
       <c r="D21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>90</v>
+      <c r="E21" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>76</v>
@@ -1636,11 +1642,11 @@
       <c r="D22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>101</v>
+      <c r="E22" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="G22" s="8">
         <v>1</v>
@@ -1655,10 +1661,10 @@
         <v>49</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G23" s="8">
         <v>1</v>
@@ -1673,10 +1679,10 @@
         <v>49</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G24" s="8">
         <v>1</v>
@@ -1691,13 +1697,13 @@
         <v>49</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G25" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -1708,11 +1714,11 @@
       <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>111</v>
+      <c r="E26" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G26" s="8">
         <v>2</v>
@@ -1726,14 +1732,14 @@
       <c r="D27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>90</v>
+      <c r="E27" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G27" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -1745,13 +1751,13 @@
         <v>49</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G28" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1763,10 +1769,10 @@
         <v>49</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G29" s="8">
         <v>2</v>
@@ -1781,13 +1787,13 @@
         <v>49</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G30" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -1799,13 +1805,13 @@
         <v>49</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="8">
-        <v>4</v>
+        <v>118</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -1817,13 +1823,13 @@
         <v>49</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -1832,13 +1838,13 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="G33" s="8">
         <v>1</v>
@@ -1853,13 +1859,13 @@
         <v>50</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G34" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34" s="7"/>
     </row>
@@ -1874,7 +1880,7 @@
         <v>71</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G35" s="8">
         <v>1</v>
@@ -1889,13 +1895,13 @@
         <v>50</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G36" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -1907,7 +1913,7 @@
         <v>50</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>76</v>
@@ -1925,13 +1931,13 @@
         <v>50</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G38" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -1943,13 +1949,13 @@
         <v>50</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -1961,13 +1967,13 @@
         <v>50</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G40" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -1979,46 +1985,56 @@
         <v>50</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>48</v>
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6" t="s">
-        <v>10</v>
-      </c>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="8">
+        <v>2</v>
+      </c>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="D43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
@@ -2028,7 +2044,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2044,7 +2060,7 @@
     <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>18</v>
@@ -2054,7 +2070,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2070,7 +2086,7 @@
     <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>18</v>
@@ -2080,111 +2096,99 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G51" s="10">
         <v>6</v>
       </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="10">
-        <v>12</v>
-      </c>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>84</v>
+        <v>50</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="G52" s="10">
+        <v>12</v>
+      </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" s="7"/>
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" s="8">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2195,49 +2199,45 @@
         <v>49</v>
       </c>
       <c r="E55" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" s="8">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
+      <c r="F56" s="8"/>
+      <c r="G56" s="8">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6" t="s">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="8">
-        <v>3</v>
-      </c>
-      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7"/>
@@ -2247,13 +2247,13 @@
         <v>46</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G58" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -2265,10 +2265,10 @@
         <v>46</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="G59" s="8">
         <v>1</v>
@@ -2280,13 +2280,13 @@
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G60" s="8">
         <v>1</v>
@@ -2304,10 +2304,10 @@
         <v>109</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G61" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -2322,10 +2322,10 @@
         <v>109</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G62" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -2337,13 +2337,13 @@
         <v>49</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G63" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -2352,18 +2352,36 @@
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="8">
+        <v>6</v>
+      </c>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E65" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F65" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G65" s="8">
         <v>5</v>
       </c>
-      <c r="H64" s="7"/>
+      <c r="H65" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2C94C1-5F90-49D6-931B-CBC9DD7BBCCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ED1F8F-C887-48BC-A717-895EE2D352DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="BR_A0100" sheetId="2" r:id="rId2"/>
     <sheet name="BR_A0200" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="127">
   <si>
     <t>System</t>
   </si>
@@ -201,9 +200,6 @@
     <t>Materials</t>
   </si>
   <si>
-    <t>To be completed</t>
-  </si>
-  <si>
     <t>Tba</t>
   </si>
   <si>
@@ -213,9 +209,6 @@
     <t>Fasteners</t>
   </si>
   <si>
-    <t>Tooling</t>
-  </si>
-  <si>
     <t>BR - Brake system front</t>
   </si>
   <si>
@@ -297,9 +290,6 @@
     <t>Between caliper, master cylinder, hose</t>
   </si>
   <si>
-    <t>Fluid, oil</t>
-  </si>
-  <si>
     <t>Brake fluid</t>
   </si>
   <si>
@@ -363,12 +353,6 @@
     <t>Fixing the reservoir on the mount</t>
   </si>
   <si>
-    <t>Reaction tool</t>
-  </si>
-  <si>
-    <t>Fixing the reservoir in the mount</t>
-  </si>
-  <si>
     <t>Positioning tee on tee mount</t>
   </si>
   <si>
@@ -442,6 +426,18 @@
   </si>
   <si>
     <t>Fix pression sensor adapter on the tee</t>
+  </si>
+  <si>
+    <t>Banjo bolt</t>
+  </si>
+  <si>
+    <t>To fix hose to left caliper</t>
+  </si>
+  <si>
+    <t>Banjo fitting, 45°, Steel</t>
+  </si>
+  <si>
+    <t>To fix hose to the left caliper</t>
   </si>
 </sst>
 </file>
@@ -984,7 +980,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1113,7 +1109,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1238,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1283,7 +1279,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1292,7 +1288,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
@@ -1308,7 +1304,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1319,10 +1315,10 @@
         <v>46</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" s="8">
         <v>4</v>
@@ -1337,10 +1333,10 @@
         <v>46</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
@@ -1355,10 +1351,10 @@
         <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G6" s="8">
         <v>4</v>
@@ -1372,11 +1368,11 @@
       <c r="D7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>79</v>
+      <c r="E7" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -1388,13 +1384,13 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G8" s="8">
         <v>12</v>
@@ -1406,13 +1402,13 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G9" s="8">
         <v>2</v>
@@ -1424,13 +1420,13 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G10" s="8">
         <v>12</v>
@@ -1442,13 +1438,13 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G11" s="8">
         <v>4</v>
@@ -1460,13 +1456,13 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G12" s="8">
         <v>2</v>
@@ -1478,13 +1474,13 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G13" s="8">
         <v>2</v>
@@ -1496,13 +1492,13 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G14" s="8">
         <v>4</v>
@@ -1514,13 +1510,13 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G15" s="8">
         <v>2</v>
@@ -1532,13 +1528,13 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -1550,13 +1546,13 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -1568,13 +1564,13 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>101</v>
+        <v>48</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -1586,13 +1582,13 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>87</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
@@ -1604,13 +1600,13 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -1622,13 +1618,13 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>101</v>
+        <v>48</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
@@ -1640,13 +1636,13 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G22" s="8">
         <v>1</v>
@@ -1658,16 +1654,16 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>107</v>
       </c>
       <c r="G23" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -1676,13 +1672,13 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G24" s="8">
         <v>1</v>
@@ -1694,13 +1690,13 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G25" s="8">
         <v>2</v>
@@ -1712,13 +1708,13 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>90</v>
+        <v>48</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26" s="8">
         <v>2</v>
@@ -1730,16 +1726,16 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>87</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G27" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -1748,16 +1744,16 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="8">
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1766,16 +1762,16 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G29" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -1784,16 +1780,16 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G30" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -1805,13 +1801,13 @@
         <v>49</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>119</v>
+        <v>66</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -1823,10 +1819,10 @@
         <v>49</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="G32" s="8">
         <v>1</v>
@@ -1841,13 +1837,13 @@
         <v>49</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="G33" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" s="7"/>
     </row>
@@ -1856,13 +1852,13 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G34" s="8">
         <v>1</v>
@@ -1874,16 +1870,16 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G35" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="7"/>
     </row>
@@ -1892,16 +1888,16 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G36" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -1910,16 +1906,16 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G37" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" s="7"/>
     </row>
@@ -1928,16 +1924,16 @@
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="8">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -1946,16 +1942,16 @@
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G39" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -1964,165 +1960,163 @@
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="8">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="7"/>
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="8">
-        <v>2</v>
-      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="6" t="s">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="10">
+        <v>6</v>
+      </c>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+      <c r="D49" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="10">
+        <v>12</v>
+      </c>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2130,17 +2124,13 @@
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G51" s="10">
-        <v>6</v>
-      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2148,62 +2138,64 @@
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G52" s="10">
-        <v>12</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="6" t="s">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="7"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="G55" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -2212,48 +2204,52 @@
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="G56" s="8">
         <v>1</v>
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6" t="s">
-        <v>39</v>
-      </c>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="G58" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -2262,16 +2258,16 @@
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G59" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -2280,7 +2276,7 @@
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>104</v>
@@ -2298,16 +2294,16 @@
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -2319,69 +2315,15 @@
         <v>49</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G62" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G63" s="8">
-        <v>1</v>
-      </c>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G64" s="8">
-        <v>6</v>
-      </c>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G65" s="8">
-        <v>5</v>
-      </c>
-      <c r="H65" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2391,10 +2333,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2402,7 +2344,7 @@
     <col min="1" max="1" width="28.7890625" customWidth="1"/>
     <col min="2" max="3" width="24.68359375" customWidth="1"/>
     <col min="4" max="4" width="23.41796875" customWidth="1"/>
-    <col min="5" max="5" width="23.1015625" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="34.41796875" customWidth="1"/>
     <col min="7" max="7" width="12.7890625" customWidth="1"/>
     <col min="8" max="8" width="12.89453125" customWidth="1"/>
@@ -2436,7 +2378,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2445,7 +2387,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
@@ -2461,7 +2403,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2472,13 +2414,13 @@
         <v>46</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="G4" s="8">
+        <v>4</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -2490,13 +2432,13 @@
         <v>46</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -2505,16 +2447,16 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -2523,16 +2465,16 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>48</v>
+        <v>77</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -2541,16 +2483,16 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>48</v>
+        <v>89</v>
+      </c>
+      <c r="G8" s="8">
+        <v>12</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -2559,50 +2501,52 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>48</v>
+        <v>90</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>13</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="8">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>48</v>
+        <v>95</v>
+      </c>
+      <c r="G11" s="8">
+        <v>4</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -2611,50 +2555,52 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>48</v>
+        <v>85</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>14</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="8">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>48</v>
+        <v>88</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -2663,16 +2609,16 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -2681,16 +2627,16 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>48</v>
+        <v>96</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -2699,16 +2645,16 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>48</v>
+        <v>97</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -2717,16 +2663,16 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>48</v>
+        <v>98</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -2735,18 +2681,758 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="8">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="8">
+        <v>4</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="8">
+        <v>2</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="10">
+        <v>4</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="10">
+        <v>4</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="8">
+        <v>3</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="8">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="8">
+        <v>2</v>
+      </c>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" s="8">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="8">
+        <v>6</v>
+      </c>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="8">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G63" s="8">
+        <v>5</v>
+      </c>
+      <c r="H63" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ED1F8F-C887-48BC-A717-895EE2D352DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9957E7-E487-4DBE-8068-5CC00B87326F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="128">
   <si>
     <t>System</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>To fix hose to the left caliper</t>
+  </si>
+  <si>
+    <t>Hoses stainless lines with fittings</t>
   </si>
 </sst>
 </file>
@@ -928,9 +931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1088,7 +1091,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -2335,7 +2338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+    <sheetView topLeftCell="B37" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9957E7-E487-4DBE-8068-5CC00B87326F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14053610-745C-4EB4-B218-4FA13AD13317}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -931,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
@@ -1239,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14053610-745C-4EB4-B218-4FA13AD13317}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134D4122-FB71-44D4-B25F-7FD523ED581A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="129">
   <si>
     <t>System</t>
   </si>
@@ -383,9 +383,6 @@
     <t>Install clamp on the hose</t>
   </si>
   <si>
-    <t>Tighten clamp on the hose</t>
-  </si>
-  <si>
     <t>Install hose between MC and tee</t>
   </si>
   <si>
@@ -419,9 +416,6 @@
     <t>To fix hose to tee, caliper and MC</t>
   </si>
   <si>
-    <t>Put the hose in the fittings</t>
-  </si>
-  <si>
     <t>Install pression sensor adapter</t>
   </si>
   <si>
@@ -441,6 +435,15 @@
   </si>
   <si>
     <t>Hoses stainless lines with fittings</t>
+  </si>
+  <si>
+    <t>cut hose between master cylinder and tee</t>
+  </si>
+  <si>
+    <t>Adapt the fittings in the hose</t>
+  </si>
+  <si>
+    <t>Install pression sensor adapter on tee</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1094,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1239,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1336,7 +1339,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>56</v>
@@ -1681,7 +1684,7 @@
         <v>84</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="8">
         <v>1</v>
@@ -1699,7 +1702,7 @@
         <v>87</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G25" s="8">
         <v>2</v>
@@ -1717,7 +1720,7 @@
         <v>84</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G26" s="8">
         <v>2</v>
@@ -1735,7 +1738,7 @@
         <v>87</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G27" s="8">
         <v>4</v>
@@ -1750,13 +1753,13 @@
         <v>48</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1771,7 +1774,7 @@
         <v>84</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G29" s="8">
         <v>1</v>
@@ -1789,7 +1792,7 @@
         <v>87</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G30" s="8">
         <v>1</v>
@@ -2171,7 +2174,7 @@
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>32</v>
@@ -2225,13 +2228,13 @@
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G57" s="8">
         <v>1</v>
@@ -2252,7 +2255,7 @@
         <v>117</v>
       </c>
       <c r="G58" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -2267,10 +2270,10 @@
         <v>104</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G59" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -2282,13 +2285,13 @@
         <v>48</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G60" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -2297,13 +2300,13 @@
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" s="8">
         <v>6</v>
@@ -2321,10 +2324,10 @@
         <v>99</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G62" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -2336,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2435,7 +2438,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>56</v>
@@ -2687,7 +2690,7 @@
         <v>48</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>74</v>
@@ -2776,14 +2779,14 @@
       <c r="D24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>87</v>
+      <c r="E24" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G24" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -2795,13 +2798,13 @@
         <v>48</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G25" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -2813,7 +2816,7 @@
         <v>48</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>110</v>
@@ -2831,13 +2834,13 @@
         <v>48</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G27" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -2849,13 +2852,13 @@
         <v>48</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="8">
-        <v>4</v>
+        <v>112</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -2867,13 +2870,13 @@
         <v>48</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>114</v>
+        <v>128</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -2885,10 +2888,10 @@
         <v>48</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G30" s="8">
         <v>1</v>
@@ -2900,13 +2903,13 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G31" s="8">
         <v>1</v>
@@ -2921,10 +2924,10 @@
         <v>49</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="G32" s="8">
         <v>1</v>
@@ -2939,10 +2942,10 @@
         <v>49</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="G33" s="8">
         <v>1</v>
@@ -2957,10 +2960,10 @@
         <v>49</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G34" s="8">
         <v>1</v>
@@ -2975,13 +2978,13 @@
         <v>49</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G35" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" s="7"/>
     </row>
@@ -2993,13 +2996,13 @@
         <v>49</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="8">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -3011,13 +3014,13 @@
         <v>49</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G37" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37" s="7"/>
     </row>
@@ -3029,56 +3032,46 @@
         <v>49</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="8">
-        <v>2</v>
-      </c>
-      <c r="H39" s="7"/>
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>18</v>
@@ -3088,7 +3081,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3104,7 +3097,7 @@
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>18</v>
@@ -3114,7 +3107,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3130,7 +3123,7 @@
     <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>18</v>
@@ -3140,156 +3133,166 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+      <c r="G46" s="10">
+        <v>4</v>
+      </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="10">
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="10">
         <v>4</v>
       </c>
-      <c r="H48" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="F49" s="8"/>
-      <c r="G49" s="10">
-        <v>4</v>
-      </c>
+      <c r="G49" s="8"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6" t="s">
-        <v>35</v>
-      </c>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7"/>
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="G53" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6" t="s">
-        <v>40</v>
-      </c>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="G55" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -3298,16 +3301,16 @@
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="G56" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -3316,13 +3319,13 @@
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G57" s="8">
         <v>1</v>
@@ -3337,13 +3340,13 @@
         <v>48</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G58" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -3352,16 +3355,16 @@
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G59" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -3370,16 +3373,16 @@
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G60" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -3388,54 +3391,18 @@
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G61" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G62" s="8">
-        <v>1</v>
-      </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G63" s="8">
-        <v>5</v>
-      </c>
-      <c r="H63" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0100_to_BRA0200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134D4122-FB71-44D4-B25F-7FD523ED581A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0371A73A-3BF9-408D-B61D-7B46D3FA12AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="128">
   <si>
     <t>System</t>
   </si>
@@ -119,9 +119,6 @@
     <t>230 mm cast iron disc</t>
   </si>
   <si>
-    <t>193 mm inox disc</t>
-  </si>
-  <si>
     <t>Front brake caliper</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>BR_01006</t>
   </si>
   <si>
-    <t>BR_02006</t>
-  </si>
-  <si>
     <t>Rear brake circuit</t>
   </si>
   <si>
@@ -444,6 +438,9 @@
   </si>
   <si>
     <t>Install pression sensor adapter on tee</t>
+  </si>
+  <si>
+    <t>Sold attached with the trear brake bell</t>
   </si>
 </sst>
 </file>
@@ -932,11 +929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -986,7 +983,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1012,13 +1009,13 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
@@ -1031,13 +1028,13 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1050,57 +1047,57 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -1115,7 +1112,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1128,7 +1125,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -1141,13 +1138,13 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -1160,13 +1157,13 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1179,57 +1176,38 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F13" s="4">
-        <v>8</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1262,16 +1240,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -1285,7 +1263,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1294,23 +1272,23 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1318,13 +1296,13 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="8">
         <v>4</v>
@@ -1336,13 +1314,13 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
@@ -1354,13 +1332,13 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="8">
         <v>4</v>
@@ -1372,13 +1350,13 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -1390,13 +1368,13 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="8">
         <v>12</v>
@@ -1408,13 +1386,13 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="8">
         <v>2</v>
@@ -1426,13 +1404,13 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" s="8">
         <v>12</v>
@@ -1444,13 +1422,13 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G11" s="8">
         <v>4</v>
@@ -1462,13 +1440,13 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G12" s="8">
         <v>2</v>
@@ -1480,13 +1458,13 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="G13" s="8">
         <v>2</v>
@@ -1498,13 +1476,13 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="8">
         <v>4</v>
@@ -1516,13 +1494,13 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G15" s="8">
         <v>2</v>
@@ -1534,13 +1512,13 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -1552,13 +1530,13 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -1570,13 +1548,13 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -1588,13 +1566,13 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
@@ -1606,13 +1584,13 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -1624,13 +1602,13 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
@@ -1642,13 +1620,13 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G22" s="8">
         <v>1</v>
@@ -1660,13 +1638,13 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G23" s="8">
         <v>2</v>
@@ -1678,13 +1656,13 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G24" s="8">
         <v>1</v>
@@ -1696,13 +1674,13 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G25" s="8">
         <v>2</v>
@@ -1714,13 +1692,13 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G26" s="8">
         <v>2</v>
@@ -1732,13 +1710,13 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G27" s="8">
         <v>4</v>
@@ -1750,16 +1728,16 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1768,13 +1746,13 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G29" s="8">
         <v>1</v>
@@ -1786,13 +1764,13 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G30" s="8">
         <v>1</v>
@@ -1804,13 +1782,13 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G31" s="8">
         <v>1</v>
@@ -1822,13 +1800,13 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="G32" s="8">
         <v>1</v>
@@ -1840,13 +1818,13 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G33" s="8">
         <v>3</v>
@@ -1858,13 +1836,13 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G34" s="8">
         <v>1</v>
@@ -1876,13 +1854,13 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G35" s="8">
         <v>2</v>
@@ -1894,13 +1872,13 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G36" s="8">
         <v>1</v>
@@ -1912,13 +1890,13 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" s="8">
         <v>4</v>
@@ -1930,16 +1908,16 @@
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -1948,13 +1926,13 @@
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G39" s="8">
         <v>2</v>
@@ -1966,16 +1944,16 @@
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -2008,7 +1986,7 @@
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>18</v>
@@ -2034,7 +2012,7 @@
     <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>18</v>
@@ -2060,7 +2038,7 @@
     <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>18</v>
@@ -2070,7 +2048,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2078,13 +2056,13 @@
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G48" s="10">
         <v>6</v>
@@ -2096,13 +2074,13 @@
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G49" s="10">
         <v>12</v>
@@ -2112,17 +2090,17 @@
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2130,10 +2108,10 @@
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -2144,10 +2122,10 @@
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8">
@@ -2160,10 +2138,10 @@
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8">
@@ -2174,17 +2152,17 @@
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2192,13 +2170,13 @@
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G55" s="8">
         <v>3</v>
@@ -2210,13 +2188,13 @@
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G56" s="8">
         <v>1</v>
@@ -2228,13 +2206,13 @@
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G57" s="8">
         <v>1</v>
@@ -2246,13 +2224,13 @@
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G58" s="8">
         <v>2</v>
@@ -2264,13 +2242,13 @@
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G59" s="8">
         <v>1</v>
@@ -2282,13 +2260,13 @@
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G60" s="8">
         <v>6</v>
@@ -2300,13 +2278,13 @@
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" s="8">
         <v>6</v>
@@ -2318,13 +2296,13 @@
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G62" s="8">
         <v>1</v>
@@ -2339,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2361,16 +2339,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2384,7 +2362,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2393,23 +2371,23 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2417,13 +2395,13 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="8">
         <v>4</v>
@@ -2435,13 +2413,13 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
@@ -2453,13 +2431,13 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="8">
         <v>4</v>
@@ -2471,13 +2449,13 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -2489,13 +2467,13 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="8">
         <v>12</v>
@@ -2507,13 +2485,13 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="8">
         <v>2</v>
@@ -2525,13 +2503,13 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" s="8">
         <v>12</v>
@@ -2543,13 +2521,13 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G11" s="8">
         <v>4</v>
@@ -2561,13 +2539,13 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G12" s="8">
         <v>2</v>
@@ -2579,13 +2557,13 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="G13" s="8">
         <v>2</v>
@@ -2597,13 +2575,13 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="8">
         <v>4</v>
@@ -2615,13 +2593,13 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G15" s="8">
         <v>2</v>
@@ -2633,13 +2611,13 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -2651,13 +2629,13 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -2669,13 +2647,13 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -2687,13 +2665,13 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
@@ -2705,13 +2683,13 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -2723,13 +2701,13 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
@@ -2741,13 +2719,13 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G22" s="8">
         <v>1</v>
@@ -2759,13 +2737,13 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G23" s="8">
         <v>2</v>
@@ -2777,13 +2755,13 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G24" s="8">
         <v>1</v>
@@ -2795,13 +2773,13 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G25" s="8">
         <v>2</v>
@@ -2813,13 +2791,13 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G26" s="8">
         <v>2</v>
@@ -2831,13 +2809,13 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G27" s="8">
         <v>4</v>
@@ -2849,16 +2827,16 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -2867,13 +2845,13 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G29" s="8">
         <v>1</v>
@@ -2885,13 +2863,13 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G30" s="8">
         <v>1</v>
@@ -2903,13 +2881,13 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G31" s="8">
         <v>1</v>
@@ -2921,13 +2899,13 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G32" s="8">
         <v>1</v>
@@ -2939,13 +2917,13 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G33" s="8">
         <v>1</v>
@@ -2957,13 +2935,13 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G34" s="8">
         <v>1</v>
@@ -2975,13 +2953,13 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G35" s="8">
         <v>4</v>
@@ -2993,16 +2971,16 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -3011,13 +2989,13 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G37" s="8">
         <v>2</v>
@@ -3029,16 +3007,16 @@
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -3071,7 +3049,7 @@
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>18</v>
@@ -3097,7 +3075,7 @@
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>18</v>
@@ -3123,17 +3101,17 @@
     <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3141,13 +3119,13 @@
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="10">
-        <v>4</v>
-      </c>
+      <c r="G46" s="8"/>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3155,58 +3133,64 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="F47" s="8"/>
-      <c r="G47" s="10">
-        <v>4</v>
+      <c r="G47" s="8">
+        <v>1</v>
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="G50" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -3215,32 +3199,36 @@
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="G51" s="8">
         <v>1</v>
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6" t="s">
-        <v>40</v>
-      </c>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7"/>
@@ -3250,13 +3238,13 @@
         <v>46</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G53" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -3268,10 +3256,10 @@
         <v>46</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="G54" s="8">
         <v>1</v>
@@ -3283,16 +3271,16 @@
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G55" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -3301,16 +3289,16 @@
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G56" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -3319,16 +3307,16 @@
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G57" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -3337,72 +3325,18 @@
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="G58" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G59" s="8">
-        <v>1</v>
-      </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G60" s="8">
-        <v>5</v>
-      </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G61" s="8">
-        <v>1</v>
-      </c>
-      <c r="H61" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
